--- a/NIFTY_50.xlsx
+++ b/NIFTY_50.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>TIC</t>
   </si>
@@ -61,82 +61,85 @@
     <t>ADANIENT.NS</t>
   </si>
   <si>
+    <t>TATASTEEL.NS</t>
+  </si>
+  <si>
+    <t>COALINDIA.NS</t>
+  </si>
+  <si>
+    <t>ITC.NS</t>
+  </si>
+  <si>
+    <t>NTPC.NS</t>
+  </si>
+  <si>
+    <t>INDUSINDBK.NS</t>
+  </si>
+  <si>
+    <t>BRITANNIA.NS</t>
+  </si>
+  <si>
+    <t>CIPLA.NS</t>
+  </si>
+  <si>
+    <t>ICICIBANK.NS</t>
+  </si>
+  <si>
+    <t>BHARTIARTL.NS</t>
+  </si>
+  <si>
+    <t>HEROMOTOCO.NS</t>
+  </si>
+  <si>
+    <t>BAJAJ-AUTO.NS</t>
+  </si>
+  <si>
+    <t>MARUTI.NS</t>
+  </si>
+  <si>
+    <t>LT.NS</t>
+  </si>
+  <si>
     <t>TATACONSUM.NS</t>
   </si>
   <si>
-    <t>COALINDIA.NS</t>
-  </si>
-  <si>
-    <t>ITC.NS</t>
+    <t>ONGC.NS</t>
+  </si>
+  <si>
+    <t>RELIANCE.NS</t>
   </si>
   <si>
     <t>NESTLEIND.NS</t>
   </si>
   <si>
-    <t>MARUTI.NS</t>
-  </si>
-  <si>
-    <t>CIPLA.NS</t>
-  </si>
-  <si>
-    <t>ICICIBANK.NS</t>
-  </si>
-  <si>
-    <t>BRITANNIA.NS</t>
-  </si>
-  <si>
-    <t>BHARTIARTL.NS</t>
-  </si>
-  <si>
-    <t>INDUSINDBK.NS</t>
-  </si>
-  <si>
-    <t>BAJAJ-AUTO.NS</t>
-  </si>
-  <si>
-    <t>LT.NS</t>
+    <t>TITAN.NS</t>
+  </si>
+  <si>
+    <t>KOTAKBANK.NS</t>
+  </si>
+  <si>
+    <t>HINDALCO.NS</t>
+  </si>
+  <si>
+    <t>APOLLOHOSP.NS</t>
+  </si>
+  <si>
+    <t>ULTRACEMCO.NS</t>
+  </si>
+  <si>
+    <t>BAJFINANCE.NS</t>
+  </si>
+  <si>
+    <t>BAJAJFINSV.NS</t>
+  </si>
+  <si>
+    <t>HDFCLIFE.NS</t>
+  </si>
+  <si>
+    <t>TCS.NS</t>
   </si>
   <si>
     <t>TECHM.NS</t>
-  </si>
-  <si>
-    <t>HEROMOTOCO.NS</t>
-  </si>
-  <si>
-    <t>ONGC.NS</t>
-  </si>
-  <si>
-    <t>HINDALCO.NS</t>
-  </si>
-  <si>
-    <t>BAJAJFINSV.NS</t>
-  </si>
-  <si>
-    <t>NTPC.NS</t>
-  </si>
-  <si>
-    <t>BAJFINANCE.NS</t>
-  </si>
-  <si>
-    <t>TATASTEEL.NS</t>
-  </si>
-  <si>
-    <t>RELIANCE.NS</t>
-  </si>
-  <si>
-    <t>KOTAKBANK.NS</t>
-  </si>
-  <si>
-    <t>APOLLOHOSP.NS</t>
-  </si>
-  <si>
-    <t>TITAN.NS</t>
-  </si>
-  <si>
-    <t>HDFCLIFE.NS</t>
-  </si>
-  <si>
-    <t>TCS.NS</t>
   </si>
 </sst>
 </file>
@@ -494,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -549,43 +552,43 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>4008.85009765625</v>
+        <v>3868.550048828125</v>
       </c>
       <c r="C2">
         <v>100</v>
       </c>
       <c r="D2">
-        <v>366.44</v>
+        <v>344.42</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>3501.565002441406</v>
+        <v>3978.639990234375</v>
       </c>
       <c r="G2">
-        <v>3479.865009765625</v>
+        <v>3775.258002929687</v>
       </c>
       <c r="H2">
         <v>1528.8</v>
       </c>
       <c r="I2">
-        <v>4048.95</v>
+        <v>4190</v>
       </c>
       <c r="J2">
-        <v>0.3730127879408501</v>
+        <v>0.3672664954499119</v>
       </c>
       <c r="K2">
-        <v>2.39</v>
+        <v>2.46</v>
       </c>
       <c r="L2">
-        <v>-0.1777878321461568</v>
+        <v>-0.177787832146157</v>
       </c>
       <c r="M2">
-        <v>0.0526837050698389</v>
+        <v>0.05323634695456684</v>
       </c>
       <c r="N2">
-        <v>0.03463361782062335</v>
+        <v>0.03316887116455933</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -593,43 +596,43 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>773.2000122070312</v>
+        <v>107.6500015258789</v>
       </c>
       <c r="C3">
         <v>97</v>
       </c>
       <c r="D3">
-        <v>66.89</v>
+        <v>4.43</v>
       </c>
       <c r="E3">
-        <v>6.05</v>
+        <v>51</v>
       </c>
       <c r="F3">
-        <v>767.3325042724609</v>
+        <v>110.3824993133545</v>
       </c>
       <c r="G3">
-        <v>788.8260021972657</v>
+        <v>106.1859994506836</v>
       </c>
       <c r="H3">
-        <v>650.2</v>
+        <v>82.7</v>
       </c>
       <c r="I3">
-        <v>861.15</v>
+        <v>138.67</v>
       </c>
       <c r="J3">
-        <v>0.2816083165850112</v>
+        <v>1.081381498327673</v>
       </c>
       <c r="K3">
-        <v>-0.21</v>
+        <v>0.73</v>
       </c>
       <c r="L3">
-        <v>-0.211083280369102</v>
+        <v>-0.2763450585675297</v>
       </c>
       <c r="M3">
-        <v>0.04168515219658633</v>
+        <v>0.05706911000606331</v>
       </c>
       <c r="N3">
-        <v>0.03086425568920736</v>
+        <v>0.04025938920803386</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -637,43 +640,43 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>253.25</v>
+        <v>222.6999969482422</v>
       </c>
       <c r="C4">
         <v>93</v>
       </c>
       <c r="D4">
-        <v>5.97</v>
+        <v>5.09</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F4">
-        <v>243.8049995422363</v>
+        <v>228.4599998474121</v>
       </c>
       <c r="G4">
-        <v>234.0820004272461</v>
+        <v>228.9257275390625</v>
       </c>
       <c r="H4">
-        <v>139.15</v>
+        <v>143.9</v>
       </c>
       <c r="I4">
         <v>263.4</v>
       </c>
       <c r="J4">
-        <v>0.3518351406209167</v>
+        <v>0.3426777783373694</v>
       </c>
       <c r="K4">
-        <v>1.48</v>
+        <v>1.37</v>
       </c>
       <c r="L4">
-        <v>-0.1926050952227957</v>
+        <v>-0.192605099221759</v>
       </c>
       <c r="M4">
-        <v>0.04694287238332448</v>
+        <v>0.04636536022811888</v>
       </c>
       <c r="N4">
-        <v>0.03267507077024823</v>
+        <v>0.03096254511981456</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -681,22 +684,22 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>356.3500061035156</v>
+        <v>332.4500122070312</v>
       </c>
       <c r="C5">
         <v>90</v>
       </c>
       <c r="D5">
-        <v>25.51</v>
+        <v>23.4</v>
       </c>
       <c r="E5">
         <v>6.25</v>
       </c>
       <c r="F5">
-        <v>347.3625015258789</v>
+        <v>339.4849975585938</v>
       </c>
       <c r="G5">
-        <v>337.8190008544922</v>
+        <v>342.9270001220703</v>
       </c>
       <c r="H5">
         <v>207</v>
@@ -705,19 +708,19 @@
         <v>361.45</v>
       </c>
       <c r="J5">
-        <v>0.2235905750294386</v>
+        <v>0.2060405170912108</v>
       </c>
       <c r="K5">
-        <v>1.75</v>
+        <v>2.02</v>
       </c>
       <c r="L5">
-        <v>-0.1156576504034588</v>
+        <v>-0.09013475541540449</v>
       </c>
       <c r="M5">
-        <v>0.02864146854869199</v>
+        <v>0.02681046436969411</v>
       </c>
       <c r="N5">
-        <v>0.02213188572315977</v>
+        <v>0.01940511618662195</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -725,43 +728,43 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <v>20322.5</v>
+        <v>165.8999938964844</v>
       </c>
       <c r="C6">
         <v>86</v>
       </c>
       <c r="D6">
-        <v>90.5</v>
+        <v>10.07</v>
       </c>
       <c r="E6">
-        <v>120</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>19993.3765625</v>
+        <v>170.7949989318848</v>
       </c>
       <c r="G6">
-        <v>19326.8645703125</v>
+        <v>170.4719998168945</v>
       </c>
       <c r="H6">
-        <v>16000</v>
+        <v>120.6</v>
       </c>
       <c r="I6">
-        <v>21050</v>
+        <v>182.95</v>
       </c>
       <c r="J6">
-        <v>0.1993976037491363</v>
+        <v>0.2620516488164708</v>
       </c>
       <c r="K6">
-        <v>0.2</v>
+        <v>1.05</v>
       </c>
       <c r="L6">
-        <v>-0.1858000357824432</v>
+        <v>-0.1636029685025416</v>
       </c>
       <c r="M6">
-        <v>0.02757386447326854</v>
+        <v>0.0311439808262918</v>
       </c>
       <c r="N6">
-        <v>0.02146082630646259</v>
+        <v>0.02357601293459548</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -769,43 +772,43 @@
         <v>19</v>
       </c>
       <c r="B7">
-        <v>9087.5498046875</v>
+        <v>1180.150024414062</v>
       </c>
       <c r="C7">
         <v>83</v>
       </c>
       <c r="D7">
-        <v>46.11</v>
+        <v>14.91</v>
       </c>
       <c r="E7">
-        <v>60</v>
+        <v>8.5</v>
       </c>
       <c r="F7">
-        <v>9034.239892578125</v>
+        <v>1201.085003662109</v>
       </c>
       <c r="G7">
-        <v>8972.172968749999</v>
+        <v>1175.388999023437</v>
       </c>
       <c r="H7">
-        <v>6536.55</v>
+        <v>763.2</v>
       </c>
       <c r="I7">
-        <v>9769</v>
+        <v>1275.8</v>
       </c>
       <c r="J7">
-        <v>0.3063160539405024</v>
+        <v>0.3464870861076628</v>
       </c>
       <c r="K7">
-        <v>0.49</v>
+        <v>0.73</v>
       </c>
       <c r="L7">
-        <v>-0.2436351743874733</v>
+        <v>-0.2361752131677297</v>
       </c>
       <c r="M7">
-        <v>0.04407672530782473</v>
+        <v>0.0481681781794239</v>
       </c>
       <c r="N7">
-        <v>0.02793662247168996</v>
+        <v>0.03419421484016871</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -813,43 +816,43 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>1121.400024414062</v>
+        <v>4391.4501953125</v>
       </c>
       <c r="C8">
         <v>79</v>
       </c>
       <c r="D8">
-        <v>35.33</v>
+        <v>66.03</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>56.5</v>
       </c>
       <c r="F8">
-        <v>1138.862512207031</v>
+        <v>4396.489990234375</v>
       </c>
       <c r="G8">
-        <v>1100.922004394531</v>
+        <v>4116.52400390625</v>
       </c>
       <c r="H8">
-        <v>850</v>
+        <v>3050</v>
       </c>
       <c r="I8">
-        <v>1185.25</v>
+        <v>4537</v>
       </c>
       <c r="J8">
-        <v>0.2462879852806268</v>
+        <v>0.2387961112361134</v>
       </c>
       <c r="K8">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="L8">
-        <v>-0.1435325964306408</v>
+        <v>-0.1788074571746623</v>
       </c>
       <c r="M8">
-        <v>0.02839949281617413</v>
+        <v>0.02985421231792891</v>
       </c>
       <c r="N8">
-        <v>0.02080184922877262</v>
+        <v>0.02248501787050249</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -857,43 +860,43 @@
         <v>21</v>
       </c>
       <c r="B9">
-        <v>906.5499877929688</v>
+        <v>1122.449951171875</v>
       </c>
       <c r="C9">
         <v>76</v>
       </c>
       <c r="D9">
-        <v>21.81</v>
+        <v>35.69</v>
       </c>
       <c r="E9">
         <v>5</v>
       </c>
       <c r="F9">
-        <v>902.9325012207031</v>
+        <v>1110.082507324219</v>
       </c>
       <c r="G9">
-        <v>891.7519995117187</v>
+        <v>1121.812004394531</v>
       </c>
       <c r="H9">
-        <v>642.15</v>
+        <v>860</v>
       </c>
       <c r="I9">
-        <v>943.25</v>
+        <v>1185.25</v>
       </c>
       <c r="J9">
-        <v>0.238864513344114</v>
+        <v>0.2247208793904384</v>
       </c>
       <c r="K9">
-        <v>0.52</v>
+        <v>0.74</v>
       </c>
       <c r="L9">
-        <v>-0.207287478993073</v>
+        <v>-0.1435325964306403</v>
       </c>
       <c r="M9">
-        <v>0.03378979114858298</v>
+        <v>0.02629122396405656</v>
       </c>
       <c r="N9">
-        <v>0.02316261702367037</v>
+        <v>0.02001677878605112</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -901,43 +904,43 @@
         <v>22</v>
       </c>
       <c r="B10">
-        <v>4098.64990234375</v>
+        <v>890.6500244140625</v>
       </c>
       <c r="C10">
         <v>72</v>
       </c>
       <c r="D10">
-        <v>62.4</v>
+        <v>20.96</v>
       </c>
       <c r="E10">
-        <v>56.5</v>
+        <v>5</v>
       </c>
       <c r="F10">
-        <v>3845.167504882812</v>
+        <v>923.6600067138672</v>
       </c>
       <c r="G10">
-        <v>3782.10599609375</v>
+        <v>913.4400024414062</v>
       </c>
       <c r="H10">
-        <v>3050</v>
+        <v>642.15</v>
       </c>
       <c r="I10">
-        <v>4237</v>
+        <v>958.2</v>
       </c>
       <c r="J10">
-        <v>0.2445359445266163</v>
+        <v>0.2288920748245967</v>
       </c>
       <c r="K10">
-        <v>0.37</v>
+        <v>0.68</v>
       </c>
       <c r="L10">
-        <v>-0.178807457174662</v>
+        <v>-0.2072874789930727</v>
       </c>
       <c r="M10">
-        <v>0.02985421231792891</v>
+        <v>0.03241773939022469</v>
       </c>
       <c r="N10">
-        <v>0.02255443143502592</v>
+        <v>0.02261471332254946</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -945,43 +948,43 @@
         <v>23</v>
       </c>
       <c r="B11">
-        <v>826.9000244140625</v>
+        <v>816.5999755859375</v>
       </c>
       <c r="C11">
         <v>69</v>
       </c>
       <c r="D11">
-        <v>70.98</v>
+        <v>69.69</v>
       </c>
       <c r="E11">
         <v>3</v>
       </c>
       <c r="F11">
-        <v>805.1475036621093</v>
+        <v>834.4874969482422</v>
       </c>
       <c r="G11">
-        <v>785.7109985351562</v>
+        <v>822.8090002441406</v>
       </c>
       <c r="H11">
         <v>628.75</v>
       </c>
       <c r="I11">
-        <v>841.45</v>
+        <v>860.55</v>
       </c>
       <c r="J11">
-        <v>0.2452961212223857</v>
+        <v>0.2328637658226411</v>
       </c>
       <c r="K11">
-        <v>0.35</v>
+        <v>0.62</v>
       </c>
       <c r="L11">
-        <v>-0.1737252919791829</v>
+        <v>-0.1737252919791828</v>
       </c>
       <c r="M11">
-        <v>0.03399799063013924</v>
+        <v>0.0328907985187408</v>
       </c>
       <c r="N11">
-        <v>0.02538473930997925</v>
+        <v>0.02338198882800219</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -989,43 +992,43 @@
         <v>24</v>
       </c>
       <c r="B12">
-        <v>1140</v>
+        <v>2727.699951171875</v>
       </c>
       <c r="C12">
         <v>66</v>
       </c>
       <c r="D12">
-        <v>14.39</v>
+        <v>20.43</v>
       </c>
       <c r="E12">
-        <v>8.5</v>
+        <v>35</v>
       </c>
       <c r="F12">
-        <v>1158.767492675781</v>
+        <v>2778.6</v>
       </c>
       <c r="G12">
-        <v>1164.750998535156</v>
+        <v>2692.562998046875</v>
       </c>
       <c r="H12">
-        <v>763.2</v>
+        <v>2146.85</v>
       </c>
       <c r="I12">
-        <v>1275.8</v>
+        <v>2938.6</v>
       </c>
       <c r="J12">
-        <v>0.3649902533397024</v>
+        <v>0.2842048563413396</v>
       </c>
       <c r="K12">
-        <v>0.2</v>
+        <v>0.47</v>
       </c>
       <c r="L12">
-        <v>-0.2479206935972076</v>
+        <v>-0.1955084260527413</v>
       </c>
       <c r="M12">
-        <v>0.05125562424436237</v>
+        <v>0.04043625596242574</v>
       </c>
       <c r="N12">
-        <v>0.03877544061393071</v>
+        <v>0.0273797292984589</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1033,43 +1036,43 @@
         <v>25</v>
       </c>
       <c r="B13">
-        <v>3727.64990234375</v>
+        <v>3544.449951171875</v>
       </c>
       <c r="C13">
         <v>62</v>
       </c>
       <c r="D13">
-        <v>18.42</v>
+        <v>17.53</v>
       </c>
       <c r="E13">
         <v>140</v>
       </c>
       <c r="F13">
-        <v>3686.320043945313</v>
+        <v>3637.552514648437</v>
       </c>
       <c r="G13">
-        <v>3715.106015625</v>
+        <v>3662.98001953125</v>
       </c>
       <c r="H13">
-        <v>3027.05</v>
+        <v>3122</v>
       </c>
       <c r="I13">
         <v>4131.75</v>
       </c>
       <c r="J13">
-        <v>0.2393386694273402</v>
+        <v>0.2353356066676069</v>
       </c>
       <c r="K13">
-        <v>0.21</v>
+        <v>0.47</v>
       </c>
       <c r="L13">
-        <v>-0.1501900360140475</v>
+        <v>-0.1501900360140477</v>
       </c>
       <c r="M13">
-        <v>0.03288028262687109</v>
+        <v>0.03251508162648745</v>
       </c>
       <c r="N13">
-        <v>0.02442491104430966</v>
+        <v>0.02413582841617665</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1077,43 +1080,43 @@
         <v>26</v>
       </c>
       <c r="B14">
-        <v>2011.099975585937</v>
+        <v>8334.349609375</v>
       </c>
       <c r="C14">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D14">
-        <v>29.21</v>
+        <v>41.67</v>
       </c>
       <c r="E14">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="F14">
-        <v>1958.367498779297</v>
+        <v>8696.639990234375</v>
       </c>
       <c r="G14">
-        <v>1928.888994140625</v>
+        <v>8884.57494140625</v>
       </c>
       <c r="H14">
-        <v>1456.35</v>
+        <v>6536.55</v>
       </c>
       <c r="I14">
-        <v>2078.55</v>
+        <v>9769</v>
       </c>
       <c r="J14">
-        <v>0.2603659374082474</v>
+        <v>0.2821130533606941</v>
       </c>
       <c r="K14">
-        <v>0.12</v>
+        <v>0.33</v>
       </c>
       <c r="L14">
-        <v>-0.2887792725312047</v>
+        <v>-0.243635174387473</v>
       </c>
       <c r="M14">
-        <v>0.03286760668124873</v>
+        <v>0.04156883051417988</v>
       </c>
       <c r="N14">
-        <v>0.02704453852989322</v>
+        <v>0.0237795886950571</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1121,43 +1124,43 @@
         <v>27</v>
       </c>
       <c r="B15">
-        <v>1058.699951171875</v>
+        <v>2109.949951171875</v>
       </c>
       <c r="C15">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D15">
-        <v>17.74</v>
+        <v>29.92</v>
       </c>
       <c r="E15">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F15">
-        <v>1030.670687866211</v>
+        <v>2127.765002441406</v>
       </c>
       <c r="G15">
-        <v>1033.349077148438</v>
+        <v>2036.126000976562</v>
       </c>
       <c r="H15">
-        <v>943.7</v>
+        <v>1456.35</v>
       </c>
       <c r="I15">
-        <v>1838</v>
+        <v>2211.6</v>
       </c>
       <c r="J15">
-        <v>0.3123536804144933</v>
+        <v>0.2512538727430634</v>
       </c>
       <c r="K15">
-        <v>-0.68</v>
+        <v>0.38</v>
       </c>
       <c r="L15">
-        <v>-0.4656718891914378</v>
+        <v>-0.2887792725312044</v>
       </c>
       <c r="M15">
-        <v>0.04512566690642601</v>
+        <v>0.03165457821214793</v>
       </c>
       <c r="N15">
-        <v>0.03414485730543979</v>
+        <v>0.02466194062059174</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1165,43 +1168,43 @@
         <v>28</v>
       </c>
       <c r="B16">
-        <v>2668.5</v>
+        <v>798.6500244140625</v>
       </c>
       <c r="C16">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D16">
-        <v>20.57</v>
+        <v>67.77</v>
       </c>
       <c r="E16">
-        <v>35</v>
+        <v>6.05</v>
       </c>
       <c r="F16">
-        <v>2609.275</v>
+        <v>804.4124969482422</v>
       </c>
       <c r="G16">
-        <v>2679.082998046875</v>
+        <v>783.3830004882813</v>
       </c>
       <c r="H16">
-        <v>2146.85</v>
+        <v>650.2</v>
       </c>
       <c r="I16">
-        <v>2938.6</v>
+        <v>861.15</v>
       </c>
       <c r="J16">
-        <v>0.2894252768120046</v>
+        <v>0.2698149410141622</v>
       </c>
       <c r="K16">
-        <v>0.09</v>
+        <v>0.28</v>
       </c>
       <c r="L16">
-        <v>-0.1955083523513109</v>
+        <v>-0.1375637161311166</v>
       </c>
       <c r="M16">
-        <v>0.04108661207607395</v>
+        <v>0.03968254602843022</v>
       </c>
       <c r="N16">
-        <v>0.02786477771771398</v>
+        <v>0.02877840828596455</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1209,22 +1212,22 @@
         <v>29</v>
       </c>
       <c r="B17">
-        <v>140.4499969482422</v>
+        <v>142.25</v>
       </c>
       <c r="C17">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D17">
-        <v>3.43</v>
+        <v>4.23</v>
       </c>
       <c r="E17">
-        <v>3.25</v>
+        <v>6.75</v>
       </c>
       <c r="F17">
-        <v>133.4675006866455</v>
+        <v>142.9500007629395</v>
       </c>
       <c r="G17">
-        <v>132.1740002441406</v>
+        <v>134.9720004272461</v>
       </c>
       <c r="H17">
         <v>119.85</v>
@@ -1233,19 +1236,19 @@
         <v>194.95</v>
       </c>
       <c r="J17">
-        <v>0.3902784333601065</v>
+        <v>0.3773798553516236</v>
       </c>
       <c r="K17">
-        <v>-0.08</v>
+        <v>0.18</v>
       </c>
       <c r="L17">
-        <v>-0.3530355845520228</v>
+        <v>-0.3530355823427851</v>
       </c>
       <c r="M17">
-        <v>0.05534401355260753</v>
+        <v>0.05357435123784822</v>
       </c>
       <c r="N17">
-        <v>0.03971936040975788</v>
+        <v>0.03082740593745473</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1253,43 +1256,43 @@
         <v>30</v>
       </c>
       <c r="B18">
-        <v>429.8500061035156</v>
+        <v>2577.800048828125</v>
       </c>
       <c r="C18">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D18">
-        <v>6.35</v>
+        <v>28.72</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F18">
-        <v>407.6399978637695</v>
+        <v>2643.830029296875</v>
       </c>
       <c r="G18">
-        <v>408.8079992675781</v>
+        <v>2573.711020507812</v>
       </c>
       <c r="H18">
-        <v>308.95</v>
+        <v>2180</v>
       </c>
       <c r="I18">
-        <v>636</v>
+        <v>2856.15</v>
       </c>
       <c r="J18">
-        <v>0.4140675818455141</v>
+        <v>0.2642942848571592</v>
       </c>
       <c r="K18">
-        <v>-0.08</v>
+        <v>0.24</v>
       </c>
       <c r="L18">
-        <v>-0.4987327317195436</v>
+        <v>-0.1728989679591811</v>
       </c>
       <c r="M18">
-        <v>0.05491855401959564</v>
+        <v>0.03610254260381247</v>
       </c>
       <c r="N18">
-        <v>0.04737521587743898</v>
+        <v>0.02420017803350579</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1297,43 +1300,43 @@
         <v>31</v>
       </c>
       <c r="B19">
-        <v>1719.25</v>
+        <v>20306.599609375</v>
       </c>
       <c r="C19">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D19">
-        <v>50.08</v>
+        <v>90.54000000000001</v>
       </c>
       <c r="E19">
-        <v>0.4</v>
+        <v>120</v>
       </c>
       <c r="F19">
-        <v>1707.535003662109</v>
+        <v>20016.27470703125</v>
       </c>
       <c r="G19">
-        <v>1714.480004882812</v>
+        <v>19952.362734375</v>
       </c>
       <c r="H19">
-        <v>1072.72</v>
+        <v>16000</v>
       </c>
       <c r="I19">
-        <v>1862.1</v>
+        <v>21050</v>
       </c>
       <c r="J19">
-        <v>0.3498403241766279</v>
+        <v>0.1990325074087206</v>
       </c>
       <c r="K19">
-        <v>-0.1</v>
+        <v>0.25</v>
       </c>
       <c r="L19">
-        <v>-0.4047179774068708</v>
+        <v>-0.1858000357824426</v>
       </c>
       <c r="M19">
-        <v>0.0461235257044326</v>
+        <v>0.02757386449642241</v>
       </c>
       <c r="N19">
-        <v>0.03323727032573737</v>
+        <v>0.02091516621142879</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1341,43 +1344,43 @@
         <v>32</v>
       </c>
       <c r="B20">
-        <v>171.4499969482422</v>
+        <v>2483</v>
       </c>
       <c r="C20">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D20">
-        <v>10.51</v>
+        <v>70.63</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="F20">
-        <v>171.3025001525879</v>
+        <v>2574.959985351562</v>
       </c>
       <c r="G20">
-        <v>167.5840002441406</v>
+        <v>2626.798994140625</v>
       </c>
       <c r="H20">
-        <v>119.1</v>
+        <v>1825.05</v>
       </c>
       <c r="I20">
-        <v>182.95</v>
+        <v>2791</v>
       </c>
       <c r="J20">
-        <v>0.2736929467234606</v>
+        <v>0.2831868018725765</v>
       </c>
       <c r="K20">
-        <v>0.79</v>
+        <v>0.17</v>
       </c>
       <c r="L20">
-        <v>-0.1636029685025414</v>
+        <v>-0.286277734079957</v>
       </c>
       <c r="M20">
-        <v>0.03419096523905074</v>
+        <v>0.03867327448244617</v>
       </c>
       <c r="N20">
-        <v>0.02642679743094592</v>
+        <v>0.02747784377040722</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1385,43 +1388,43 @@
         <v>33</v>
       </c>
       <c r="B21">
-        <v>7051.4501953125</v>
+        <v>1826.050048828125</v>
       </c>
       <c r="C21">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D21">
-        <v>42.68</v>
+        <v>27.01</v>
       </c>
       <c r="E21">
-        <v>20</v>
+        <v>1.1</v>
       </c>
       <c r="F21">
-        <v>7183.33251953125</v>
+        <v>1891.077508544922</v>
       </c>
       <c r="G21">
-        <v>7268.515</v>
+        <v>1894.280002441406</v>
       </c>
       <c r="H21">
-        <v>5220</v>
+        <v>1631</v>
       </c>
       <c r="I21">
-        <v>8045</v>
+        <v>1997.55</v>
       </c>
       <c r="J21">
-        <v>0.3463054205759094</v>
+        <v>0.2506674928755714</v>
       </c>
       <c r="K21">
-        <v>-0.12</v>
+        <v>0.08</v>
       </c>
       <c r="L21">
-        <v>-0.3271146179544018</v>
+        <v>-0.1605591122393944</v>
       </c>
       <c r="M21">
-        <v>0.05036729369377507</v>
+        <v>0.03392517148269255</v>
       </c>
       <c r="N21">
-        <v>0.03573829489989028</v>
+        <v>0.02669834107213707</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1429,43 +1432,43 @@
         <v>34</v>
       </c>
       <c r="B22">
-        <v>107.5500030517578</v>
+        <v>455.5</v>
       </c>
       <c r="C22">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D22">
-        <v>4.58</v>
+        <v>7.04</v>
       </c>
       <c r="E22">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="F22">
-        <v>102.2774993896484</v>
+        <v>458.4949996948242</v>
       </c>
       <c r="G22">
-        <v>103.1659997558594</v>
+        <v>433.8939990234375</v>
       </c>
       <c r="H22">
-        <v>82.7</v>
+        <v>308.95</v>
       </c>
       <c r="I22">
-        <v>138.67</v>
+        <v>636</v>
       </c>
       <c r="J22">
-        <v>1.089872077526659</v>
+        <v>0.4076519939831249</v>
       </c>
       <c r="K22">
-        <v>0.6</v>
+        <v>-0.01</v>
       </c>
       <c r="L22">
-        <v>-0.2763450132624397</v>
+        <v>-0.4987327317195437</v>
       </c>
       <c r="M22">
-        <v>0.0586597474190933</v>
+        <v>0.05336062359873377</v>
       </c>
       <c r="N22">
-        <v>0.04424620425600936</v>
+        <v>0.04684747081520785</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1473,43 +1476,43 @@
         <v>35</v>
       </c>
       <c r="B23">
-        <v>2631.800048828125</v>
+        <v>4781.7001953125</v>
       </c>
       <c r="C23">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D23">
-        <v>30.14</v>
+        <v>81.27</v>
       </c>
       <c r="E23">
-        <v>8</v>
+        <v>11.75</v>
       </c>
       <c r="F23">
-        <v>2508.310009765625</v>
+        <v>4716.8900390625</v>
       </c>
       <c r="G23">
-        <v>2493.841010742187</v>
+        <v>4542.3180078125</v>
       </c>
       <c r="H23">
-        <v>2180</v>
+        <v>3361.55</v>
       </c>
       <c r="I23">
-        <v>2856.15</v>
+        <v>5141.5</v>
       </c>
       <c r="J23">
-        <v>0.2847527688276456</v>
+        <v>0.32194251437198</v>
       </c>
       <c r="K23">
-        <v>0.06</v>
+        <v>-0.04</v>
       </c>
       <c r="L23">
-        <v>-0.1728989679591815</v>
+        <v>-0.304219954831768</v>
       </c>
       <c r="M23">
-        <v>0.03838639298704764</v>
+        <v>0.04424328226261132</v>
       </c>
       <c r="N23">
-        <v>0.02878852170477716</v>
+        <v>0.03185380681597371</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1517,43 +1520,43 @@
         <v>36</v>
       </c>
       <c r="B24">
-        <v>1899.099975585937</v>
+        <v>7012.39990234375</v>
       </c>
       <c r="C24">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D24">
-        <v>27.87</v>
+        <v>30.57</v>
       </c>
       <c r="E24">
-        <v>1.1</v>
+        <v>38</v>
       </c>
       <c r="F24">
-        <v>1879.449993896484</v>
+        <v>7098.867456054688</v>
       </c>
       <c r="G24">
-        <v>1876.326997070312</v>
+        <v>6820.6309765625</v>
       </c>
       <c r="H24">
-        <v>1631</v>
+        <v>5157.05</v>
       </c>
       <c r="I24">
-        <v>2108</v>
+        <v>7946</v>
       </c>
       <c r="J24">
-        <v>0.2664145507246853</v>
+        <v>0.2739767228705003</v>
       </c>
       <c r="K24">
-        <v>-0.24</v>
+        <v>-0.1</v>
       </c>
       <c r="L24">
-        <v>-0.211441094477845</v>
+        <v>-0.3421558061266554</v>
       </c>
       <c r="M24">
-        <v>0.0355251186540555</v>
+        <v>0.04037493767396996</v>
       </c>
       <c r="N24">
-        <v>0.02960308243775842</v>
+        <v>0.02722496432865648</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1561,43 +1564,43 @@
         <v>37</v>
       </c>
       <c r="B25">
-        <v>4421.39990234375</v>
+        <v>6490.64990234375</v>
       </c>
       <c r="C25">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D25">
-        <v>71.95999999999999</v>
+        <v>38.55</v>
       </c>
       <c r="E25">
-        <v>11.75</v>
+        <v>20</v>
       </c>
       <c r="F25">
-        <v>4386.739990234375</v>
+        <v>6641.92255859375</v>
       </c>
       <c r="G25">
-        <v>4382.89201171875</v>
+        <v>6905.60001953125</v>
       </c>
       <c r="H25">
-        <v>3361.55</v>
+        <v>5220</v>
       </c>
       <c r="I25">
-        <v>5935.4</v>
+        <v>8045</v>
       </c>
       <c r="J25">
-        <v>0.3570366665569517</v>
+        <v>0.3254478047023543</v>
       </c>
       <c r="K25">
-        <v>-0.25</v>
+        <v>-0.12</v>
       </c>
       <c r="L25">
-        <v>-0.3853626188660251</v>
+        <v>-0.3271146179544013</v>
       </c>
       <c r="M25">
-        <v>0.04792297933873535</v>
+        <v>0.04705957503112322</v>
       </c>
       <c r="N25">
-        <v>0.03329018072429216</v>
+        <v>0.0320564874423545</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1605,43 +1608,43 @@
         <v>38</v>
       </c>
       <c r="B26">
-        <v>2651.800048828125</v>
+        <v>1512.650024414062</v>
       </c>
       <c r="C26">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D26">
-        <v>75.19</v>
+        <v>44.07</v>
       </c>
       <c r="E26">
-        <v>7.5</v>
+        <v>0.4</v>
       </c>
       <c r="F26">
-        <v>2687.467492675781</v>
+        <v>1608.910003662109</v>
       </c>
       <c r="G26">
-        <v>2656.222001953125</v>
+        <v>1658.87</v>
       </c>
       <c r="H26">
-        <v>1825.05</v>
+        <v>1072.72</v>
       </c>
       <c r="I26">
-        <v>2791</v>
+        <v>1862.1</v>
       </c>
       <c r="J26">
-        <v>0.2935728821313278</v>
+        <v>0.336888029988519</v>
       </c>
       <c r="K26">
-        <v>0.11</v>
+        <v>-0.13</v>
       </c>
       <c r="L26">
-        <v>-0.2862777340799568</v>
+        <v>-0.4047179774068707</v>
       </c>
       <c r="M26">
-        <v>0.04068804808801766</v>
+        <v>0.04384478659442193</v>
       </c>
       <c r="N26">
-        <v>0.03074757055077323</v>
+        <v>0.02936235229142796</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1649,43 +1652,43 @@
         <v>39</v>
       </c>
       <c r="B27">
-        <v>542.6500244140625</v>
+        <v>577.8499755859375</v>
       </c>
       <c r="C27">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D27">
-        <v>74.95</v>
+        <v>81.20999999999999</v>
       </c>
       <c r="E27">
         <v>1.7</v>
       </c>
       <c r="F27">
-        <v>534.9025024414062</v>
+        <v>583.0524932861329</v>
       </c>
       <c r="G27">
-        <v>544.2809997558594</v>
+        <v>554.8159973144532</v>
       </c>
       <c r="H27">
         <v>497.05</v>
       </c>
       <c r="I27">
-        <v>723.95</v>
+        <v>678.8</v>
       </c>
       <c r="J27">
-        <v>0.2880252397410888</v>
+        <v>0.2854694076406982</v>
       </c>
       <c r="K27">
-        <v>-0.57</v>
+        <v>-0.23</v>
       </c>
       <c r="L27">
-        <v>-0.2944226253068454</v>
+        <v>-0.2531335694356028</v>
       </c>
       <c r="M27">
-        <v>0.04179869479793537</v>
+        <v>0.04134519582614744</v>
       </c>
       <c r="N27">
-        <v>0.02948324379069886</v>
+        <v>0.0290600530164866</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1693,22 +1696,22 @@
         <v>40</v>
       </c>
       <c r="B28">
-        <v>3315.949951171875</v>
+        <v>3259.699951171875</v>
       </c>
       <c r="C28">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D28">
-        <v>30.8</v>
+        <v>30.08</v>
       </c>
       <c r="E28">
         <v>8</v>
       </c>
       <c r="F28">
-        <v>3179.696936035156</v>
+        <v>3341.325012207031</v>
       </c>
       <c r="G28">
-        <v>3119.442202148437</v>
+        <v>3270.319697265625</v>
       </c>
       <c r="H28">
         <v>2926.1</v>
@@ -1717,19 +1720,63 @@
         <v>4043</v>
       </c>
       <c r="J28">
-        <v>0.2322830129688637</v>
+        <v>0.2324005820806832</v>
       </c>
       <c r="K28">
-        <v>-0.16</v>
+        <v>-0.29</v>
       </c>
       <c r="L28">
-        <v>-0.2497540428967904</v>
+        <v>-0.2497540428967908</v>
       </c>
       <c r="M28">
-        <v>0.03600084020192974</v>
+        <v>0.03565973028701189</v>
       </c>
       <c r="N28">
-        <v>0.02459320891316188</v>
+        <v>0.02374477767902707</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29">
+        <v>1015.849975585938</v>
+      </c>
+      <c r="C29">
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <v>16.82</v>
+      </c>
+      <c r="E29">
+        <v>18</v>
+      </c>
+      <c r="F29">
+        <v>1058.712506103516</v>
+      </c>
+      <c r="G29">
+        <v>1046.227126464844</v>
+      </c>
+      <c r="H29">
+        <v>943.7</v>
+      </c>
+      <c r="I29">
+        <v>1838</v>
+      </c>
+      <c r="J29">
+        <v>0.3067554689319087</v>
+      </c>
+      <c r="K29">
+        <v>-0.85</v>
+      </c>
+      <c r="L29">
+        <v>-0.4656718891914376</v>
+      </c>
+      <c r="M29">
+        <v>0.04553775714258704</v>
+      </c>
+      <c r="N29">
+        <v>0.03603683086178243</v>
       </c>
     </row>
   </sheetData>
